--- a/hes2020/kira/sozlesmeler/carsi/21_Dogus_60m2/21 HSP adem duman.xlsx
+++ b/hes2020/kira/sozlesmeler/carsi/21_Dogus_60m2/21 HSP adem duman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
@@ -817,9 +817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -828,8 +828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="322560"/>
-          <a:ext cx="2082600" cy="5441400"/>
+          <a:off x="1988640" y="322560"/>
+          <a:ext cx="2460240" cy="5441040"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -848,7 +848,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -879,9 +879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -890,8 +890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="6611760"/>
-          <a:ext cx="2082600" cy="5492160"/>
+          <a:off x="1988640" y="6611760"/>
+          <a:ext cx="2460240" cy="5491800"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -910,7 +910,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -941,9 +941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -952,8 +952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="13055040"/>
-          <a:ext cx="2082600" cy="5401440"/>
+          <a:off x="1988640" y="13055040"/>
+          <a:ext cx="2460240" cy="5401080"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -972,7 +972,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1003,9 +1003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1014,8 +1014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="19100520"/>
-          <a:ext cx="2082600" cy="5401440"/>
+          <a:off x="1988640" y="19100520"/>
+          <a:ext cx="2460240" cy="5401080"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1034,7 +1034,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1065,9 +1065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1076,8 +1076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="25448040"/>
-          <a:ext cx="2082600" cy="5401440"/>
+          <a:off x="1988640" y="25448040"/>
+          <a:ext cx="2460240" cy="5401080"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1096,7 +1096,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1127,9 +1127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1138,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="31746600"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="31746600"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1158,7 +1158,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1189,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1200,8 +1200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="37791720"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="37791720"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1220,7 +1220,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1251,9 +1251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1262,8 +1262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="44139240"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="44139240"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1282,7 +1282,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1313,9 +1313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1324,8 +1324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="50486760"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="50486760"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1344,7 +1344,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1375,9 +1375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1386,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="56531880"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="56531880"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1406,7 +1406,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1437,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1448,8 +1448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="62879400"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="62879400"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1468,7 +1468,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1499,9 +1499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>247</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1510,8 +1510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923840" y="69226920"/>
-          <a:ext cx="2082960" cy="5445360"/>
+          <a:off x="1988640" y="69226920"/>
+          <a:ext cx="2460600" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1530,7 +1530,7 @@
               <a:alpha val="40000"/>
             </a:srgbClr>
           </a:glow>
-          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="37674" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50760" dir="2700000" dist="37674" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="40000"/>
             </a:srgbClr>
@@ -1562,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,10 +1843,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1862,11 +1862,11 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="86.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="86.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="6" width="9.13"/>
   </cols>
   <sheetData>
@@ -2051,14 +2051,14 @@
     <mergeCell ref="A9:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
       <formula1>"Gerçek Kişi,Tüzel Kişi"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2073,13 +2073,13 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="15.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="13.36"/>
@@ -2515,17 +2515,17 @@
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3" type="list">
       <formula1>"Malen,Nakden"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2541,14 +2541,14 @@
       <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="23.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="23.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="1.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="4.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="32" width="27.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="32" width="6.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="32" width="19.72"/>
@@ -8217,8 +8217,8 @@
     <mergeCell ref="G247:J247"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.196527777777778" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.196527777777778" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
